--- a/pred_ohlcv/54_21/2020-01-13 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 DAC ohlcv.xlsx
@@ -6554,7 +6554,7 @@
         <v>5170620.821099998</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>5663708.824799999</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>5709434.754370735</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>5657585.753470735</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>5545604.857370735</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>5202970.801470735</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>4170029.234970735</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>4296955.978870736</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>4255669.055470736</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>3733043.882470735</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>3696575.652270735</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>3643253.857870735</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>3431508.682070735</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>3517175.634370735</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2092872.630970735</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>2134326.605570735</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>2177129.837670736</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2136527.946470736</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>2186148.201770735</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>3244056.891270735</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>3621019.802770735</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>3675053.875370735</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3351475.492570735</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3523450.076470735</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3558260.905270734</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3558260.905270734</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3599358.510970735</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3552587.791370735</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>3591996.619970735</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>3591996.619970735</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>3543369.604470734</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>3460902.128870734</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>3439010.127370735</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>3273535.182170735</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>3333634.289170735</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3372000.619670735</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3263875.568670735</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3324120.163870735</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3068250.774570735</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>2949448.756670735</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2968409.888570735</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3018556.715570735</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2991217.056570735</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3033024.376870735</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2979302.742670734</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2863666.846770735</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-2493466.302972987</v>
       </c>
       <c r="H1047">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-2537200.589772987</v>
       </c>
       <c r="H1048">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-2495867.479372987</v>
       </c>
       <c r="H1049">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-2547067.612972987</v>
       </c>
       <c r="H1050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-2490468.968672987</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-2532351.301072987</v>
       </c>
       <c r="H1052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-2511150.677672987</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-2447732.615772987</v>
       </c>
       <c r="H1054">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-2552563.934272987</v>
       </c>
       <c r="H1055">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-2594382.246472987</v>
       </c>
       <c r="H1056">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-2551151.124472987</v>
       </c>
       <c r="H1057">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-2514112.359372987</v>
       </c>
       <c r="H1058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-2446036.648872987</v>
       </c>
       <c r="H1059">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-2383879.968872987</v>
       </c>
       <c r="H1060">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-2417351.603972987</v>
       </c>
       <c r="H1061">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-2377618.328772987</v>
       </c>
       <c r="H1062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-2419499.213972987</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-2375479.826772987</v>
       </c>
       <c r="H1064">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-2360004.900372987</v>
       </c>
       <c r="H1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-2219146.920872987</v>
       </c>
       <c r="H1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-2183917.499872987</v>
       </c>
       <c r="H1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-2145107.744372987</v>
       </c>
       <c r="H1068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-2184332.520472987</v>
       </c>
       <c r="H1069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-2218125.814072987</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-2260206.741572987</v>
       </c>
       <c r="H1071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-2296270.749572987</v>
       </c>
       <c r="H1072">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-2228644.738072987</v>
       </c>
       <c r="H1073">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-2251922.301872987</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-2245382.807772987</v>
       </c>
       <c r="H1076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-2283948.082872987</v>
       </c>
       <c r="H1077">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-2311068.139872987</v>
       </c>
       <c r="H1078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-2253094.100272988</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-2237084.985272987</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-2183520.973572987</v>
       </c>
       <c r="H1081">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 DAC ohlcv.xlsx
@@ -6554,7 +6554,7 @@
         <v>5170620.821099998</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>5724227.350699998</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>5663708.824799999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>5709434.754370735</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>5657585.753470735</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>5545604.857370735</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>5202970.801470735</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>4170029.234970735</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>4296955.978870736</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>4307756.605070735</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>4255669.055470736</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>4242430.520570735</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>4266927.657170735</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>4032055.451370736</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3961813.520270735</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3655214.362470735</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3728665.000370735</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>3685554.229970735</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>3643253.857870735</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>3517175.634370735</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2092872.630970735</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>2134326.605570735</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>2177129.837670736</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2136527.946470736</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>2186148.201770735</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>3244056.891270735</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>3621019.802770735</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>3675053.875370735</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3351475.492570735</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3523450.076470735</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3558260.905270734</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3558260.905270734</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3599358.510970735</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3552587.791370735</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>3591996.619970735</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>3591996.619970735</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>3543369.604470734</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>3460902.128870734</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>3439010.127370735</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>3273535.182170735</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>3333634.289170735</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3372000.619670735</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3263875.568670735</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3324120.163870735</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3068250.774570735</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>2949448.756670735</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2968409.888570735</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3018556.715570735</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2991217.056570735</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3033024.376870735</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2979302.742670734</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2863666.846770735</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-2375479.826772987</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-2360004.900372987</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-2237084.985272987</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-2183520.973572987</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-2218488.784172987</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-2218488.784172987</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-2231767.885872987</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-489474.2280729873</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
